--- a/JavaScript/12. Cas/Test-JavaScript-1.deo.xlsx
+++ b/JavaScript/12. Cas/Test-JavaScript-1.deo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dzenankosuta/Documents/GitHub/it-camp-4-grupa/JavaScript/12. Cas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00450461-E407-8F44-AAA9-6622F2A5EC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BF0C70-5F04-1D41-B7D5-420B510ACE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="500" windowWidth="24220" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -604,13 +604,15 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>35</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4">
         <f>SUM(C4:F4)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -620,13 +622,15 @@
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G20" si="0">SUM(C5:F5)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -636,13 +640,15 @@
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>24</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -652,13 +658,15 @@
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>22</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -668,13 +676,15 @@
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>32</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -684,13 +694,15 @@
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>24</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -700,13 +712,15 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>33</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -716,13 +730,15 @@
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>31</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -732,13 +748,15 @@
       <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>23</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -748,13 +766,15 @@
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>33</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -764,13 +784,15 @@
       <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>40</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -780,13 +802,15 @@
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>40</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -796,13 +820,15 @@
       <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>33</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -812,13 +838,15 @@
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>40</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,13 +856,15 @@
       <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>36</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
       <c r="G18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
